--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_7.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_7.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -26320,19 +26322,19 @@
         <v>6872.430125828972</v>
       </c>
       <c r="E2" t="n">
-        <v>6872.430125828973</v>
+        <v>6872.430125828972</v>
       </c>
       <c r="F2" t="n">
-        <v>6872.430125828973</v>
+        <v>6872.430125828972</v>
       </c>
       <c r="G2" t="n">
         <v>6872.430125828972</v>
       </c>
       <c r="H2" t="n">
-        <v>6872.430125828973</v>
+        <v>6872.430125828972</v>
       </c>
       <c r="I2" t="n">
-        <v>6872.430125828973</v>
+        <v>6872.430125828972</v>
       </c>
       <c r="J2" t="n">
         <v>6872.430125828972</v>
@@ -26350,7 +26352,7 @@
         <v>6872.430125828972</v>
       </c>
       <c r="O2" t="n">
-        <v>6872.430125828973</v>
+        <v>6872.430125828972</v>
       </c>
       <c r="P2" t="n">
         <v>6872.430125828972</v>
@@ -26528,19 +26530,19 @@
         <v>-30682.27280321615</v>
       </c>
       <c r="E6" t="n">
-        <v>2945.327196783847</v>
+        <v>2945.327196783846</v>
       </c>
       <c r="F6" t="n">
-        <v>2945.327196783847</v>
+        <v>2945.327196783846</v>
       </c>
       <c r="G6" t="n">
         <v>2945.327196783846</v>
       </c>
       <c r="H6" t="n">
-        <v>2945.327196783847</v>
+        <v>2945.327196783846</v>
       </c>
       <c r="I6" t="n">
-        <v>2945.327196783847</v>
+        <v>2945.327196783846</v>
       </c>
       <c r="J6" t="n">
         <v>2945.327196783846</v>
@@ -26555,10 +26557,10 @@
         <v>2945.327196783846</v>
       </c>
       <c r="N6" t="n">
-        <v>2945.327196783845</v>
+        <v>2945.327196783846</v>
       </c>
       <c r="O6" t="n">
-        <v>2945.327196783847</v>
+        <v>2945.327196783846</v>
       </c>
       <c r="P6" t="n">
         <v>2945.327196783846</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_7.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-67346.91829930984</v>
+        <v>-78708.28664093408</v>
       </c>
     </row>
     <row r="7">
@@ -26331,7 +26331,7 @@
         <v>6872.430125828972</v>
       </c>
       <c r="H2" t="n">
-        <v>6872.430125828972</v>
+        <v>6872.430125828973</v>
       </c>
       <c r="I2" t="n">
         <v>6872.430125828972</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-30682.27280321615</v>
+        <v>-32040.20190001794</v>
       </c>
       <c r="C6" t="n">
-        <v>-30682.27280321615</v>
+        <v>-32040.20190001794</v>
       </c>
       <c r="D6" t="n">
-        <v>-30682.27280321615</v>
+        <v>-32040.20190001794</v>
       </c>
       <c r="E6" t="n">
-        <v>2945.327196783846</v>
+        <v>1587.398099982066</v>
       </c>
       <c r="F6" t="n">
-        <v>2945.327196783846</v>
+        <v>1587.398099982066</v>
       </c>
       <c r="G6" t="n">
-        <v>2945.327196783846</v>
+        <v>1587.398099982066</v>
       </c>
       <c r="H6" t="n">
-        <v>2945.327196783846</v>
+        <v>1587.398099982067</v>
       </c>
       <c r="I6" t="n">
-        <v>2945.327196783846</v>
+        <v>1587.398099982066</v>
       </c>
       <c r="J6" t="n">
-        <v>2945.327196783846</v>
+        <v>1587.398099982066</v>
       </c>
       <c r="K6" t="n">
-        <v>2945.327196783846</v>
+        <v>1587.398099982066</v>
       </c>
       <c r="L6" t="n">
-        <v>2945.327196783846</v>
+        <v>1587.398099982066</v>
       </c>
       <c r="M6" t="n">
-        <v>2945.327196783846</v>
+        <v>1587.398099982066</v>
       </c>
       <c r="N6" t="n">
-        <v>2945.327196783846</v>
+        <v>1587.398099982066</v>
       </c>
       <c r="O6" t="n">
-        <v>2945.327196783846</v>
+        <v>1587.398099982066</v>
       </c>
       <c r="P6" t="n">
-        <v>2945.327196783846</v>
+        <v>1587.398099982066</v>
       </c>
     </row>
   </sheetData>
